--- a/Namecheck.xlsx
+++ b/Namecheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amponnus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed3e0168d03ae90f/Documents/GitHub/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664A9D5-522F-4444-B765-122A35787A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5664A9D5-522F-4444-B765-122A35787A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7BE726-AC56-42D0-9708-263F30A5A7A4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B3A37DBF-0877-4A17-A9F5-43FA9CFD0254}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3A37DBF-0877-4A17-A9F5-43FA9CFD0254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Mona SW Pre-P3 Report - wk09" xfId="1" xr:uid="{BDE9382D-534D-4F10-A6BF-5FACAAFB2B10}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1105,17 +1115,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E766A16-86F7-46EA-922C-C4339684FCE5}">
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1133,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1197,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1253,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1373,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1419,7 +1429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1437,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1443,7 +1453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -1459,7 +1469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -1555,7 +1565,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -1603,7 +1613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -1635,7 +1645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -1667,7 +1677,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
@@ -1691,7 +1701,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -1699,7 +1709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
@@ -1723,7 +1733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -1747,7 +1757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
@@ -1755,7 +1765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
@@ -1763,7 +1773,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
@@ -1803,7 +1813,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>83</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
@@ -1827,7 +1837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
@@ -1835,7 +1845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
@@ -1859,7 +1869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
@@ -1867,7 +1877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
@@ -1875,7 +1885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -1891,381 +1901,378 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2274,17 +2281,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935F49DD-651F-4321-85B3-51CB9D59A23F}">
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2299,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +2411,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2435,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2444,7 +2451,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2652,7 +2659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -2780,7 +2787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
@@ -2820,7 +2827,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
@@ -2876,7 +2883,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -2964,7 +2971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>83</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
@@ -3044,7 +3051,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -3060,319 +3067,319 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Namecheck.xlsx
+++ b/Namecheck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed3e0168d03ae90f/Documents/GitHub/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5664A9D5-522F-4444-B765-122A35787A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7BE726-AC56-42D0-9708-263F30A5A7A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFB978-84AA-4664-ACF9-9806DDEC4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3A37DBF-0877-4A17-A9F5-43FA9CFD0254}"/>
   </bookViews>
@@ -16,28 +16,21 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="163">
   <si>
     <t>Talent Talent</t>
   </si>
@@ -504,75 +497,18 @@
     <t>Tech code matrix</t>
   </si>
   <si>
-    <t>Anuja Gautam</t>
-  </si>
-  <si>
     <t>Deepak Palnisamy</t>
   </si>
   <si>
-    <t xml:space="preserve">Chirumamilla Sirisha </t>
-  </si>
-  <si>
     <t>Shaanthapriyan</t>
   </si>
   <si>
     <t>Swati Yadav</t>
   </si>
   <si>
-    <t xml:space="preserve">Himani Sharma </t>
-  </si>
-  <si>
-    <t>Rashmi</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
     <t>Gopal</t>
   </si>
   <si>
-    <t>Khushi</t>
-  </si>
-  <si>
-    <t>Aviral</t>
-  </si>
-  <si>
-    <t>Dharani</t>
-  </si>
-  <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
-    <t>Sourabh B</t>
-  </si>
-  <si>
-    <t>Aman</t>
-  </si>
-  <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Rohit</t>
-  </si>
-  <si>
-    <t>Soumya</t>
-  </si>
-  <si>
-    <t>Anilesh</t>
-  </si>
-  <si>
-    <t>Praveen</t>
-  </si>
-  <si>
-    <t>Divya</t>
-  </si>
-  <si>
-    <t>Deepshikha</t>
-  </si>
-  <si>
     <t>Amit Goyat</t>
   </si>
   <si>
@@ -582,31 +518,7 @@
     <t>Divagaran R</t>
   </si>
   <si>
-    <t>Vijaya Kadali</t>
-  </si>
-  <si>
     <t>Soft skills</t>
-  </si>
-  <si>
-    <t>Abhishek Kumar(CNP)</t>
-  </si>
-  <si>
-    <t>Pujita Chitnada</t>
-  </si>
-  <si>
-    <t>Ganesh T Raja</t>
-  </si>
-  <si>
-    <t>Anuja Goutam</t>
-  </si>
-  <si>
-    <t>Sanskrit Gupta</t>
-  </si>
-  <si>
-    <t>Archana Ajith</t>
-  </si>
-  <si>
-    <t>Sirsa Chirumamilla</t>
   </si>
 </sst>
 </file>
@@ -614,13 +526,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +561,14 @@
       <sz val="11"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -722,11 +635,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -735,24 +648,436 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Mona SW Pre-P3 Report - wk09" xfId="1" xr:uid="{BDE9382D-534D-4F10-A6BF-5FACAAFB2B10}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1113,23 +1438,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E766A16-86F7-46EA-922C-C4339684FCE5}">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1137,7 +1463,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1145,7 +1471,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1153,7 +1479,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1161,7 +1487,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1169,7 +1495,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1177,7 +1503,7 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1185,7 +1511,7 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1193,7 +1519,7 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1201,7 +1527,7 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1209,7 +1535,7 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1217,7 +1543,7 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1225,7 +1551,7 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1233,7 +1559,7 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1241,7 +1567,7 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1249,7 +1575,7 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1257,7 +1583,7 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1265,7 +1591,7 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1273,7 +1599,7 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1281,7 +1607,7 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1289,7 +1615,7 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1297,7 +1623,7 @@
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1305,7 +1631,7 @@
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1313,7 +1639,7 @@
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1321,7 +1647,7 @@
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1329,7 +1655,7 @@
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1337,7 +1663,7 @@
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1345,7 +1671,7 @@
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1353,7 +1679,7 @@
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1361,7 +1687,7 @@
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1369,7 +1695,7 @@
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1377,135 +1703,137 @@
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1513,7 +1841,7 @@
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1521,7 +1849,7 @@
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1529,7 +1857,7 @@
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1537,15 +1865,15 @@
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>161</v>
+      <c r="B52" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1553,7 +1881,7 @@
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1561,7 +1889,7 @@
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1569,7 +1897,7 @@
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1577,143 +1905,143 @@
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>162</v>
+      <c r="B57" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>163</v>
+      <c r="B58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>164</v>
+      <c r="B59" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>165</v>
+      <c r="B60" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>166</v>
+      <c r="B61" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>167</v>
+      <c r="B62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>168</v>
+      <c r="B63" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>169</v>
+      <c r="B64" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>170</v>
+      <c r="B65" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>171</v>
+      <c r="B66" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>172</v>
+      <c r="B67" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>173</v>
+      <c r="B68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>174</v>
+      <c r="B69" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>175</v>
+      <c r="B70" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>176</v>
+      <c r="B71" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>177</v>
+      <c r="B72" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>178</v>
+      <c r="B73" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1721,7 +2049,7 @@
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1729,7 +2057,7 @@
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1737,7 +2065,7 @@
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1745,7 +2073,7 @@
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1753,7 +2081,7 @@
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1761,7 +2089,7 @@
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1769,15 +2097,15 @@
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>179</v>
+      <c r="B81" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1785,7 +2113,7 @@
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1793,7 +2121,7 @@
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1801,7 +2129,7 @@
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1809,15 +2137,15 @@
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>180</v>
+      <c r="B86" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1825,15 +2153,15 @@
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>181</v>
+      <c r="B88" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1841,7 +2169,7 @@
       <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1849,7 +2177,7 @@
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1857,7 +2185,7 @@
       <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1865,7 +2193,7 @@
       <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1873,7 +2201,7 @@
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1881,7 +2209,7 @@
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1889,7 +2217,7 @@
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1897,7 +2225,7 @@
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1905,1481 +2233,1594 @@
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B159" xr:uid="{4E766A16-86F7-46EA-922C-C4339684FCE5}"/>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935F49DD-651F-4321-85B3-51CB9D59A23F}">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B97"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" s="2"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D127" s="8"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D129" s="8"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D154" s="8"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="D159" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <autoFilter ref="A1:B1" xr:uid="{935F49DD-651F-4321-85B3-51CB9D59A23F}"/>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
